--- a/data/pca/factorExposure/factorExposure_2017-02-16.xlsx
+++ b/data/pca/factorExposure/factorExposure_2017-02-16.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,15 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +714,88 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.01323024827674514</v>
+        <v>0.01190140893986083</v>
       </c>
       <c r="C2">
-        <v>0.01978311935375012</v>
+        <v>-0.04076052678485084</v>
       </c>
       <c r="D2">
-        <v>-0.0223000230065054</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.03028820786098963</v>
+      </c>
+      <c r="E2">
+        <v>0.04266438740868533</v>
+      </c>
+      <c r="F2">
+        <v>0.007254448960888046</v>
+      </c>
+      <c r="G2">
+        <v>0.1116855358548372</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>-0.02419772992194324</v>
+        <v>0.03850919168642031</v>
       </c>
       <c r="C3">
-        <v>-0.0005612313009450207</v>
+        <v>-0.101130056873795</v>
       </c>
       <c r="D3">
-        <v>-0.09010760070305564</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>0.01792841126851727</v>
+      </c>
+      <c r="E3">
+        <v>0.1022387300724703</v>
+      </c>
+      <c r="F3">
+        <v>0.02246334172499552</v>
+      </c>
+      <c r="G3">
+        <v>0.1403241711323025</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.02911209903359576</v>
+        <v>0.05516452587640196</v>
       </c>
       <c r="C4">
-        <v>0.01090737848622667</v>
+        <v>-0.0670787792858516</v>
       </c>
       <c r="D4">
-        <v>-0.07943649099676758</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.02513920066347324</v>
+      </c>
+      <c r="E4">
+        <v>0.04057117820511204</v>
+      </c>
+      <c r="F4">
+        <v>0.0004016534660431106</v>
+      </c>
+      <c r="G4">
+        <v>0.1037981531003908</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,136 +806,226 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>-0.005121969344625873</v>
+        <v>0.0349708171843767</v>
       </c>
       <c r="C6">
-        <v>0.0141017104049235</v>
+        <v>-0.05118329968547878</v>
       </c>
       <c r="D6">
-        <v>-0.06424561670479816</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.01765484645006376</v>
+      </c>
+      <c r="E6">
+        <v>0.04447087264984956</v>
+      </c>
+      <c r="F6">
+        <v>0.000353859477339255</v>
+      </c>
+      <c r="G6">
+        <v>0.08773153860812119</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>0.004085030823995764</v>
+        <v>0.02104483218372519</v>
       </c>
       <c r="C7">
-        <v>0.014504729600788</v>
+        <v>-0.03901073700791732</v>
       </c>
       <c r="D7">
-        <v>-0.03623699121730419</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.01412908052135995</v>
+      </c>
+      <c r="E7">
+        <v>0.007765739551482386</v>
+      </c>
+      <c r="F7">
+        <v>0.00407237437695815</v>
+      </c>
+      <c r="G7">
+        <v>0.1253974174539315</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>0.004498761022597406</v>
+        <v>0.003489998189344901</v>
       </c>
       <c r="C8">
-        <v>0.002561601339616097</v>
+        <v>-0.02372359853572284</v>
       </c>
       <c r="D8">
-        <v>0.01080627674873147</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.003979739996263248</v>
+      </c>
+      <c r="E8">
+        <v>0.03263378981424783</v>
+      </c>
+      <c r="F8">
+        <v>0.002507821619725511</v>
+      </c>
+      <c r="G8">
+        <v>0.07183691390149589</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>-0.007734090903129277</v>
+        <v>0.03297346936484685</v>
       </c>
       <c r="C9">
-        <v>0.01159017950755333</v>
+        <v>-0.04841431972090367</v>
       </c>
       <c r="D9">
-        <v>-0.04923766440192365</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.01662755367941659</v>
+      </c>
+      <c r="E9">
+        <v>0.02710704678028234</v>
+      </c>
+      <c r="F9">
+        <v>-0.0004983163526991383</v>
+      </c>
+      <c r="G9">
+        <v>0.1062901264265689</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>-0.1453083436355083</v>
+        <v>0.09928132176532532</v>
       </c>
       <c r="C10">
-        <v>-0.07256848646697527</v>
+        <v>0.1823192462982524</v>
       </c>
       <c r="D10">
-        <v>0.1336843440636099</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.01578302959413712</v>
+      </c>
+      <c r="E10">
+        <v>0.01854661025215069</v>
+      </c>
+      <c r="F10">
+        <v>0.0239306622205071</v>
+      </c>
+      <c r="G10">
+        <v>0.05310251329029079</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>-0.003462085411371401</v>
+        <v>0.0348517150973045</v>
       </c>
       <c r="C11">
-        <v>-0.0006048122664909809</v>
+        <v>-0.05194175381177414</v>
       </c>
       <c r="D11">
-        <v>-0.04697210530828957</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0.002772394540868646</v>
+      </c>
+      <c r="E11">
+        <v>0.0231152789928187</v>
+      </c>
+      <c r="F11">
+        <v>-0.01512810585892372</v>
+      </c>
+      <c r="G11">
+        <v>0.09089045308112499</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>-0.007023047625051067</v>
+        <v>0.03732286741855174</v>
       </c>
       <c r="C12">
-        <v>0.003177127570945394</v>
+        <v>-0.04702912515775549</v>
       </c>
       <c r="D12">
-        <v>-0.04199795747486105</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0.00666229990269377</v>
+      </c>
+      <c r="E12">
+        <v>0.01018525724381165</v>
+      </c>
+      <c r="F12">
+        <v>0.0005451892806209206</v>
+      </c>
+      <c r="G12">
+        <v>0.08276741126898048</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>-0.00982867181460019</v>
+        <v>0.01373624116975846</v>
       </c>
       <c r="C13">
-        <v>0.0190733531654933</v>
+        <v>-0.04130999672080614</v>
       </c>
       <c r="D13">
-        <v>-0.02819883520789117</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0.02725284563754166</v>
+      </c>
+      <c r="E13">
+        <v>0.04286627174020671</v>
+      </c>
+      <c r="F13">
+        <v>0.007643361842686354</v>
+      </c>
+      <c r="G13">
+        <v>0.1429389617215363</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>0.002995054861828099</v>
+        <v>0.01032025302866956</v>
       </c>
       <c r="C14">
-        <v>0.009234184340413671</v>
+        <v>-0.02750693110851881</v>
       </c>
       <c r="D14">
-        <v>-0.01740254464783896</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.01034221823923429</v>
+      </c>
+      <c r="E14">
+        <v>0.009045925198128921</v>
+      </c>
+      <c r="F14">
+        <v>0.01010353434495428</v>
+      </c>
+      <c r="G14">
+        <v>0.1127738324258962</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -901,24 +1036,42 @@
       <c r="D15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>-0.005200806451759467</v>
+        <v>0.03374480806843452</v>
       </c>
       <c r="C16">
-        <v>-0.001443841650292288</v>
+        <v>-0.04550800021028543</v>
       </c>
       <c r="D16">
-        <v>-0.03636143310555867</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.002331369233968203</v>
+      </c>
+      <c r="E16">
+        <v>0.01896117860350221</v>
+      </c>
+      <c r="F16">
+        <v>0.003578787875183165</v>
+      </c>
+      <c r="G16">
+        <v>0.09342976094731256</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1082,19 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1105,203 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>-0.007857135025529547</v>
+        <v>0.02103940707372339</v>
       </c>
       <c r="C19">
-        <v>0.0106156997435217</v>
+        <v>-0.04930607340148253</v>
       </c>
       <c r="D19">
-        <v>-0.03835384622275736</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>0.01993653260717283</v>
+      </c>
+      <c r="E19">
+        <v>0.08812399229505269</v>
+      </c>
+      <c r="F19">
+        <v>0.002045574646976867</v>
+      </c>
+      <c r="G19">
+        <v>0.1454358451539376</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>0.0008116207308003464</v>
+        <v>0.01540126291855393</v>
       </c>
       <c r="C20">
-        <v>0.01217587026743178</v>
+        <v>-0.04090353102158295</v>
       </c>
       <c r="D20">
-        <v>-0.02682459945479536</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0.01482870136863269</v>
+      </c>
+      <c r="E20">
+        <v>0.04022700742250639</v>
+      </c>
+      <c r="F20">
+        <v>0.02097046131716238</v>
+      </c>
+      <c r="G20">
+        <v>0.1159404270607639</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>0.003925212666490387</v>
+        <v>0.01031758280138301</v>
       </c>
       <c r="C21">
-        <v>0.01607343183187757</v>
+        <v>-0.03781631816044817</v>
       </c>
       <c r="D21">
-        <v>-0.003989112314680674</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0.01973375356938392</v>
+      </c>
+      <c r="E21">
+        <v>0.04994109145967211</v>
+      </c>
+      <c r="F21">
+        <v>0.0128050572273403</v>
+      </c>
+      <c r="G21">
+        <v>0.1437784539669023</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>-0.0008249746882278181</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>-0.0062796599867718</v>
       </c>
       <c r="D22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0.002124355711219033</v>
+      </c>
+      <c r="E22">
+        <v>0.01712817413994008</v>
+      </c>
+      <c r="F22">
+        <v>-0.008247928591866856</v>
+      </c>
+      <c r="G22">
+        <v>0.003770908269781098</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>-0.0008301240240217496</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>-0.006280767125856256</v>
       </c>
       <c r="D23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0.002121942123684063</v>
+      </c>
+      <c r="E23">
+        <v>0.01710615606365048</v>
+      </c>
+      <c r="F23">
+        <v>-0.008238754647068039</v>
+      </c>
+      <c r="G23">
+        <v>0.003672174571104267</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>0.000959243916947233</v>
+        <v>0.02895458253167115</v>
       </c>
       <c r="C24">
-        <v>0.006312635932582147</v>
+        <v>-0.04876209418662093</v>
       </c>
       <c r="D24">
-        <v>-0.03887798669729819</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.007416543774204136</v>
+      </c>
+      <c r="E24">
+        <v>0.01709233931087023</v>
+      </c>
+      <c r="F24">
+        <v>-0.005964914075330915</v>
+      </c>
+      <c r="G24">
+        <v>0.09287446801373342</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>-0.01340708317941276</v>
+        <v>0.04230033200046638</v>
       </c>
       <c r="C25">
-        <v>0.005720836533104189</v>
+        <v>-0.05657293670034228</v>
       </c>
       <c r="D25">
-        <v>-0.05624722624941979</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0.01148859033139528</v>
+      </c>
+      <c r="E25">
+        <v>0.00703366869966635</v>
+      </c>
+      <c r="F25">
+        <v>-0.003663789838050551</v>
+      </c>
+      <c r="G25">
+        <v>0.09864691628949013</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>-0.005029615570126647</v>
+        <v>0.01462581297332188</v>
       </c>
       <c r="C26">
-        <v>0.0219281827371153</v>
+        <v>-0.01111503347041451</v>
       </c>
       <c r="D26">
-        <v>0.003672703081919002</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0.02422325387110057</v>
+      </c>
+      <c r="E26">
+        <v>0.008723816283712542</v>
+      </c>
+      <c r="F26">
+        <v>0.007776181261289313</v>
+      </c>
+      <c r="G26">
+        <v>0.08658611122291086</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,108 +1312,180 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>-0.195767453619141</v>
+        <v>0.1289487969728786</v>
       </c>
       <c r="C28">
-        <v>-0.08145317499337124</v>
+        <v>0.2420076464728884</v>
       </c>
       <c r="D28">
-        <v>0.1614177692669469</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>-0.007097703572093383</v>
+      </c>
+      <c r="E28">
+        <v>0.006076596989231384</v>
+      </c>
+      <c r="F28">
+        <v>0.01958541817592986</v>
+      </c>
+      <c r="G28">
+        <v>0.0479276692157954</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>-0.004112035494722397</v>
+        <v>0.009514084034318583</v>
       </c>
       <c r="C29">
-        <v>0.005548231129222362</v>
+        <v>-0.0231604155519828</v>
       </c>
       <c r="D29">
-        <v>-0.01812268798769137</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0.009479047448959299</v>
+      </c>
+      <c r="E29">
+        <v>0.003398623443686614</v>
+      </c>
+      <c r="F29">
+        <v>0.01462767686692327</v>
+      </c>
+      <c r="G29">
+        <v>0.1025258788574077</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>-0.01163167904903259</v>
+        <v>0.03942346585256872</v>
       </c>
       <c r="C30">
-        <v>0.02104703189258978</v>
+        <v>-0.06759220382900874</v>
       </c>
       <c r="D30">
-        <v>-0.09708970383268024</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0.02973068304752634</v>
+      </c>
+      <c r="E30">
+        <v>0.07195526818465561</v>
+      </c>
+      <c r="F30">
+        <v>-0.02861057839666871</v>
+      </c>
+      <c r="G30">
+        <v>0.135348532117408</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>-0.02095429821732447</v>
+        <v>0.05358276314829682</v>
       </c>
       <c r="C31">
-        <v>-0.004527782852459879</v>
+        <v>-0.0398887001173892</v>
       </c>
       <c r="D31">
-        <v>-0.02464486623947564</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>0.003983427906237935</v>
+      </c>
+      <c r="E31">
+        <v>-0.002955708441405579</v>
+      </c>
+      <c r="F31">
+        <v>0.03743079506690036</v>
+      </c>
+      <c r="G31">
+        <v>0.09679643862971382</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>-0.006282703502997866</v>
+        <v>0.002009818980016345</v>
       </c>
       <c r="C32">
-        <v>-0.01148188242460254</v>
+        <v>-0.02241318205460134</v>
       </c>
       <c r="D32">
-        <v>-0.01586255312084015</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.002246109930341121</v>
+      </c>
+      <c r="E32">
+        <v>0.04462302256737555</v>
+      </c>
+      <c r="F32">
+        <v>-0.0316133603471231</v>
+      </c>
+      <c r="G32">
+        <v>0.08430869908276448</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>-0.001507950296958246</v>
+        <v>0.02762255585241502</v>
       </c>
       <c r="C33">
-        <v>0.01169732292434105</v>
+        <v>-0.05035155903200268</v>
       </c>
       <c r="D33">
-        <v>-0.03500600049057738</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>0.0167185805655891</v>
+      </c>
+      <c r="E33">
+        <v>0.051965172288508</v>
+      </c>
+      <c r="F33">
+        <v>-0.00703329435328526</v>
+      </c>
+      <c r="G33">
+        <v>0.1637914626988671</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>-0.01655528696945336</v>
+        <v>0.04077559459655043</v>
       </c>
       <c r="C34">
-        <v>-0.01358720595961283</v>
+        <v>-0.05870039211230044</v>
       </c>
       <c r="D34">
-        <v>-0.05635933855262861</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.004128580729399818</v>
+      </c>
+      <c r="E34">
+        <v>0.0141418399446859</v>
+      </c>
+      <c r="F34">
+        <v>-0.01827198135339797</v>
+      </c>
+      <c r="G34">
+        <v>0.09409690402902529</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1181,24 +1496,42 @@
       <c r="D35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>-0.007415612418272078</v>
+        <v>0.01620544913371838</v>
       </c>
       <c r="C36">
-        <v>0.008324191087187729</v>
+        <v>-0.01010939823735194</v>
       </c>
       <c r="D36">
-        <v>0.001737155195629304</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>0.01290582886000731</v>
+      </c>
+      <c r="E36">
+        <v>0.0102475886767139</v>
+      </c>
+      <c r="F36">
+        <v>0.009669778570287467</v>
+      </c>
+      <c r="G36">
+        <v>0.09414489777752449</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,108 +1542,180 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>-0.01858580394985816</v>
+        <v>0.0325136075034532</v>
       </c>
       <c r="C38">
-        <v>-0.01693901163479709</v>
+        <v>-0.02878254258721376</v>
       </c>
       <c r="D38">
-        <v>-0.031268846011285</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>-0.007711314725725563</v>
+      </c>
+      <c r="E38">
+        <v>0.005060729944715713</v>
+      </c>
+      <c r="F38">
+        <v>0.01894628041461925</v>
+      </c>
+      <c r="G38">
+        <v>0.08609841363535951</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>0.01398908490113117</v>
+        <v>0.03660758721599064</v>
       </c>
       <c r="C39">
-        <v>0.01588605809088202</v>
+        <v>-0.0793890675307317</v>
       </c>
       <c r="D39">
-        <v>-0.09202476210477499</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>0.01229464506300066</v>
+      </c>
+      <c r="E39">
+        <v>0.035057664717121</v>
+      </c>
+      <c r="F39">
+        <v>-0.0170480320079937</v>
+      </c>
+      <c r="G39">
+        <v>0.0955345233605816</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>-0.01216575095492248</v>
+        <v>0.0141767128791286</v>
       </c>
       <c r="C40">
-        <v>0.00576677091722774</v>
+        <v>-0.03833105782135713</v>
       </c>
       <c r="D40">
-        <v>-0.02049290148494043</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>0.01507881837583059</v>
+      </c>
+      <c r="E40">
+        <v>0.03457458199792814</v>
+      </c>
+      <c r="F40">
+        <v>0.01391918225062973</v>
+      </c>
+      <c r="G40">
+        <v>0.125517892382968</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>-0.01191222867441725</v>
+        <v>0.02084140862874398</v>
       </c>
       <c r="C41">
-        <v>-0.001731749727040205</v>
+        <v>-0.003017385424473052</v>
       </c>
       <c r="D41">
-        <v>0.01130374235266628</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>0.004856149397326071</v>
+      </c>
+      <c r="E41">
+        <v>0.00902750589334147</v>
+      </c>
+      <c r="F41">
+        <v>0.01612040605984736</v>
+      </c>
+      <c r="G41">
+        <v>0.08973450970485222</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B42">
-        <v>-0.02287621505718359</v>
+        <v>0.005846300895322321</v>
       </c>
       <c r="C42">
-        <v>0.08938027431710355</v>
+        <v>-0.02380357042232671</v>
       </c>
       <c r="D42">
-        <v>-0.07140826195469817</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
+        <v>0.08672920898056266</v>
+      </c>
+      <c r="E42">
+        <v>-0.002243331001934077</v>
+      </c>
+      <c r="F42">
+        <v>0.03479813292312817</v>
+      </c>
+      <c r="G42">
+        <v>-0.02325860123498236</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>-0.01309895847524497</v>
+        <v>0.03574822681083757</v>
       </c>
       <c r="C43">
-        <v>-0.001428541894819732</v>
+        <v>-0.01882098575972002</v>
       </c>
       <c r="D43">
-        <v>0.00958054656436331</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>0.006241106442878437</v>
+      </c>
+      <c r="E43">
+        <v>0.0225564157741231</v>
+      </c>
+      <c r="F43">
+        <v>0.01225608587433496</v>
+      </c>
+      <c r="G43">
+        <v>0.120575811887497</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>0.004928484591309388</v>
+        <v>0.01357137913367574</v>
       </c>
       <c r="C44">
-        <v>0.005437584881025969</v>
+        <v>-0.05808355194849881</v>
       </c>
       <c r="D44">
-        <v>-0.04669229837537001</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>0.007284086289162648</v>
+      </c>
+      <c r="E44">
+        <v>0.02956701698837154</v>
+      </c>
+      <c r="F44">
+        <v>0.01496149964474537</v>
+      </c>
+      <c r="G44">
+        <v>0.1137754334434951</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1726,88 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>-0.0003198164941537602</v>
+        <v>0.009279832021479842</v>
       </c>
       <c r="C46">
-        <v>0.01072146792115299</v>
+        <v>-0.01493701641253213</v>
       </c>
       <c r="D46">
-        <v>0.005783402827777564</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>0.01259198049871645</v>
+      </c>
+      <c r="E46">
+        <v>-0.002482934755731281</v>
+      </c>
+      <c r="F46">
+        <v>0.01816918632103543</v>
+      </c>
+      <c r="G46">
+        <v>0.1085748423060069</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>-0.02774390526993037</v>
+        <v>0.07974346047484675</v>
       </c>
       <c r="C47">
-        <v>-0.01481366033200171</v>
+        <v>-0.07023255886928566</v>
       </c>
       <c r="D47">
-        <v>-0.06935563331122452</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.005151067174440027</v>
+      </c>
+      <c r="E47">
+        <v>-0.01424296084527491</v>
+      </c>
+      <c r="F47">
+        <v>0.05298012961049321</v>
+      </c>
+      <c r="G47">
+        <v>0.0850109777700576</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>-0.004915681259012214</v>
+        <v>0.01960363631037216</v>
       </c>
       <c r="C48">
-        <v>-0.0009605891842312642</v>
+        <v>-0.01265172992627689</v>
       </c>
       <c r="D48">
-        <v>-0.008823230865464923</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>0.002406994361888727</v>
+      </c>
+      <c r="E48">
+        <v>0.004371748591884393</v>
+      </c>
+      <c r="F48">
+        <v>0.02103492365747564</v>
+      </c>
+      <c r="G48">
+        <v>0.1029731565703914</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1818,65 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>-0.03891967948635749</v>
+        <v>0.07476798520448785</v>
       </c>
       <c r="C50">
-        <v>-0.01814768586826725</v>
+        <v>-0.07327940595780319</v>
       </c>
       <c r="D50">
-        <v>-0.05914280932987345</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.001993233975618249</v>
+      </c>
+      <c r="E50">
+        <v>-0.0108096276000469</v>
+      </c>
+      <c r="F50">
+        <v>0.05106051361730807</v>
+      </c>
+      <c r="G50">
+        <v>0.09455285237657673</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>-0.0009969965029072779</v>
+        <v>0.01297142707620413</v>
       </c>
       <c r="C51">
-        <v>0.00613270294601427</v>
+        <v>-0.03765134775411505</v>
       </c>
       <c r="D51">
-        <v>-0.0207284037841543</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>0.01106730398179965</v>
+      </c>
+      <c r="E51">
+        <v>0.03077305736249124</v>
+      </c>
+      <c r="F51">
+        <v>-0.01315477714653406</v>
+      </c>
+      <c r="G51">
+        <v>0.123799791685137</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,136 +1887,226 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>-0.04234855341651806</v>
+        <v>0.08108252499507479</v>
       </c>
       <c r="C53">
-        <v>-0.01949891895096902</v>
+        <v>-0.08442153508637459</v>
       </c>
       <c r="D53">
-        <v>-0.101479310100115</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.003472415448904238</v>
+      </c>
+      <c r="E53">
+        <v>-0.03334293468733722</v>
+      </c>
+      <c r="F53">
+        <v>0.05764098393806564</v>
+      </c>
+      <c r="G53">
+        <v>0.0863116171672845</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>-0.01516046830256608</v>
+        <v>0.03290418468627984</v>
       </c>
       <c r="C54">
-        <v>-0.01007586772463689</v>
+        <v>-0.01871901559721099</v>
       </c>
       <c r="D54">
-        <v>0.003873327252261748</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.00099580565740827</v>
+      </c>
+      <c r="E54">
+        <v>0.0186724385385953</v>
+      </c>
+      <c r="F54">
+        <v>0.00965271939452015</v>
+      </c>
+      <c r="G54">
+        <v>0.1115641882395361</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>-0.02899766100080461</v>
+        <v>0.0738207208054867</v>
       </c>
       <c r="C55">
-        <v>-0.01487096634806641</v>
+        <v>-0.06730434903922777</v>
       </c>
       <c r="D55">
-        <v>-0.08587643537105938</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.005219956995580456</v>
+      </c>
+      <c r="E55">
+        <v>-0.0322791402430179</v>
+      </c>
+      <c r="F55">
+        <v>0.05522985951890254</v>
+      </c>
+      <c r="G55">
+        <v>0.06476827317961489</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>-0.06971678091412817</v>
+        <v>0.1361762784603082</v>
       </c>
       <c r="C56">
-        <v>-0.03730109694482141</v>
+        <v>-0.1061613342770206</v>
       </c>
       <c r="D56">
-        <v>-0.1510813274638632</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.01297907789105389</v>
+      </c>
+      <c r="E56">
+        <v>-0.0407409956806451</v>
+      </c>
+      <c r="F56">
+        <v>0.06996921077092375</v>
+      </c>
+      <c r="G56">
+        <v>0.0383761899990856</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B57">
-        <v>-0.01366832949847997</v>
+        <v>0.004300385784766977</v>
       </c>
       <c r="C57">
-        <v>0.0181068491512166</v>
+        <v>-0.005770702165429446</v>
       </c>
       <c r="D57">
-        <v>-0.0218344182615004</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
+        <v>0.02274881541532328</v>
+      </c>
+      <c r="E57">
+        <v>0.02465978730677822</v>
+      </c>
+      <c r="F57">
+        <v>-0.001931601491798244</v>
+      </c>
+      <c r="G57">
+        <v>0.01985729077287618</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>-0.00270190492450345</v>
+        <v>0.04617635544871048</v>
       </c>
       <c r="C58">
-        <v>-0.0004396188643645298</v>
+        <v>-0.04308209187995044</v>
       </c>
       <c r="D58">
-        <v>-0.1363084106889925</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>0.02358619612791807</v>
+      </c>
+      <c r="E58">
+        <v>0.8362586769250853</v>
+      </c>
+      <c r="F58">
+        <v>0.4427393976030113</v>
+      </c>
+      <c r="G58">
+        <v>-0.2473160760541099</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>-0.2247242824244164</v>
+        <v>0.1599057882060726</v>
       </c>
       <c r="C59">
-        <v>-0.1000418916519831</v>
+        <v>0.2068822850535633</v>
       </c>
       <c r="D59">
-        <v>0.1383495631138728</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>-0.01142660831905947</v>
+      </c>
+      <c r="E59">
+        <v>0.02617292675716405</v>
+      </c>
+      <c r="F59">
+        <v>0.003785762506353655</v>
+      </c>
+      <c r="G59">
+        <v>0.03610735076112358</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>-0.233108227052169</v>
+        <v>0.2879284347455202</v>
       </c>
       <c r="C60">
-        <v>-0.08565172484289026</v>
+        <v>-0.1151984377455366</v>
       </c>
       <c r="D60">
-        <v>-0.192895502589633</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>0.01363208143543071</v>
+      </c>
+      <c r="E60">
+        <v>0.07638165270342227</v>
+      </c>
+      <c r="F60">
+        <v>-0.3392013516815864</v>
+      </c>
+      <c r="G60">
+        <v>-0.1596261062628594</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>0.002149425568090299</v>
+        <v>0.03911561378657012</v>
       </c>
       <c r="C61">
-        <v>0.004551954327667175</v>
+        <v>-0.06435997596968308</v>
       </c>
       <c r="D61">
-        <v>-0.07032005492068322</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>0.006160265876512235</v>
+      </c>
+      <c r="E61">
+        <v>0.03034436175745675</v>
+      </c>
+      <c r="F61">
+        <v>-0.009633724193299142</v>
+      </c>
+      <c r="G61">
+        <v>0.1032802333594613</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2117,180 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>-0.002655112517775623</v>
+        <v>0.01451890093444219</v>
       </c>
       <c r="C63">
-        <v>0.006779356225682275</v>
+        <v>-0.03018891776631555</v>
       </c>
       <c r="D63">
-        <v>-0.02131449961523793</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>0.008821485378180366</v>
+      </c>
+      <c r="E63">
+        <v>0.004896956172539626</v>
+      </c>
+      <c r="F63">
+        <v>0.01514160039404432</v>
+      </c>
+      <c r="G63">
+        <v>0.09422193211041585</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>-0.02692308679188815</v>
+        <v>0.04922367612297199</v>
       </c>
       <c r="C64">
-        <v>-0.006444887127029942</v>
+        <v>-0.04601531252283094</v>
       </c>
       <c r="D64">
-        <v>-0.04913778534665466</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>0.006346169120324366</v>
+      </c>
+      <c r="E64">
+        <v>0.004694799956244048</v>
+      </c>
+      <c r="F64">
+        <v>-0.003832076434315617</v>
+      </c>
+      <c r="G64">
+        <v>0.1014368815693493</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>-0.03841021349011451</v>
+        <v>0.0741078907297146</v>
       </c>
       <c r="C65">
-        <v>0.0008589779407564582</v>
+        <v>-0.0601452509043806</v>
       </c>
       <c r="D65">
-        <v>-0.112149345899963</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.01727102594726131</v>
+      </c>
+      <c r="E65">
+        <v>0.04937705146759001</v>
+      </c>
+      <c r="F65">
+        <v>-0.01706606043598835</v>
+      </c>
+      <c r="G65">
+        <v>0.0443631916408934</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>0.01253178277789195</v>
+        <v>0.04828261077294386</v>
       </c>
       <c r="C66">
-        <v>0.01484895774861156</v>
+        <v>-0.1060836323188118</v>
       </c>
       <c r="D66">
-        <v>-0.1326583684013714</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>0.01258708562080578</v>
+      </c>
+      <c r="E66">
+        <v>0.05138369064970073</v>
+      </c>
+      <c r="F66">
+        <v>-0.02482560554630422</v>
+      </c>
+      <c r="G66">
+        <v>0.1060684405413899</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>-0.04109067721378607</v>
+        <v>0.05568553961399709</v>
       </c>
       <c r="C67">
-        <v>-0.02321408031267346</v>
+        <v>-0.03387610376757381</v>
       </c>
       <c r="D67">
-        <v>-0.05177880921246651</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.006260904653726054</v>
+      </c>
+      <c r="E67">
+        <v>-0.006056879008979714</v>
+      </c>
+      <c r="F67">
+        <v>0.01555258822961448</v>
+      </c>
+      <c r="G67">
+        <v>0.07238473031109438</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>-0.2271281551378957</v>
+        <v>0.1591934027055857</v>
       </c>
       <c r="C68">
-        <v>-0.07985746778346704</v>
+        <v>0.2720081060055139</v>
       </c>
       <c r="D68">
-        <v>0.1965308726845859</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.004614128353381392</v>
+      </c>
+      <c r="E68">
+        <v>0.002371764771443568</v>
+      </c>
+      <c r="F68">
+        <v>0.04577604378880734</v>
+      </c>
+      <c r="G68">
+        <v>0.02334364740039363</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>-0.03476546417138008</v>
+        <v>0.08222581809222577</v>
       </c>
       <c r="C69">
-        <v>-0.02208649678644799</v>
+        <v>-0.07392536563894675</v>
       </c>
       <c r="D69">
-        <v>-0.07234159340949826</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.008922680630203945</v>
+      </c>
+      <c r="E69">
+        <v>-0.0262969952840551</v>
+      </c>
+      <c r="F69">
+        <v>0.0320628012936468</v>
+      </c>
+      <c r="G69">
+        <v>0.09808727619570427</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,192 +2301,318 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>-0.1962189852599512</v>
+        <v>0.1442766855884383</v>
       </c>
       <c r="C71">
-        <v>-0.07750444678411376</v>
+        <v>0.2294760503970036</v>
       </c>
       <c r="D71">
-        <v>0.1429833977007421</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>-0.002999223988392291</v>
+      </c>
+      <c r="E71">
+        <v>0.03166690790744439</v>
+      </c>
+      <c r="F71">
+        <v>0.03027614379512191</v>
+      </c>
+      <c r="G71">
+        <v>0.06833664473098576</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>-0.02924736475222786</v>
+        <v>0.08722518407692693</v>
       </c>
       <c r="C72">
-        <v>-0.02087787519892632</v>
+        <v>-0.06996942389463572</v>
       </c>
       <c r="D72">
-        <v>-0.09058652132427614</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>-0.008222065327209066</v>
+      </c>
+      <c r="E72">
+        <v>-0.005870563648647849</v>
+      </c>
+      <c r="F72">
+        <v>-0.03460556275884712</v>
+      </c>
+      <c r="G72">
+        <v>0.09445861973148935</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>-0.3065899224555737</v>
+        <v>0.3718199185601118</v>
       </c>
       <c r="C73">
-        <v>-0.10927074671642</v>
+        <v>-0.1223769542413517</v>
       </c>
       <c r="D73">
-        <v>-0.2930513562422408</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>0.02401438682694135</v>
+      </c>
+      <c r="E73">
+        <v>0.1881023580258431</v>
+      </c>
+      <c r="F73">
+        <v>-0.5568169010672661</v>
+      </c>
+      <c r="G73">
+        <v>-0.2989077393125988</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>-0.05800316363134951</v>
+        <v>0.1042744165371647</v>
       </c>
       <c r="C74">
-        <v>-0.03238504364117212</v>
+        <v>-0.1094950637954959</v>
       </c>
       <c r="D74">
-        <v>-0.1599305560651618</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.009470398273841472</v>
+      </c>
+      <c r="E74">
+        <v>-0.01708374956814008</v>
+      </c>
+      <c r="F74">
+        <v>0.06354867366835658</v>
+      </c>
+      <c r="G74">
+        <v>0.07006073708566013</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>-0.1501405945816265</v>
+        <v>0.247030361392585</v>
       </c>
       <c r="C75">
-        <v>-0.07922155625894202</v>
+        <v>-0.1525769525974313</v>
       </c>
       <c r="D75">
-        <v>-0.2745906446748239</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.03141546037723859</v>
+      </c>
+      <c r="E75">
+        <v>-0.09445158199812119</v>
+      </c>
+      <c r="F75">
+        <v>0.1541317904269295</v>
+      </c>
+      <c r="G75">
+        <v>-0.02832445255451208</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>-0.06133394408902976</v>
+        <v>0.1152431240840276</v>
       </c>
       <c r="C76">
-        <v>-0.03940686362396317</v>
+        <v>-0.1110583242827526</v>
       </c>
       <c r="D76">
-        <v>-0.1778160091612806</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>-0.01754922106692244</v>
+      </c>
+      <c r="E76">
+        <v>-0.04194960256768376</v>
+      </c>
+      <c r="F76">
+        <v>0.09035498448802527</v>
+      </c>
+      <c r="G76">
+        <v>0.05015389850759461</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>-0.02465605050681245</v>
+        <v>0.07162927711077624</v>
       </c>
       <c r="C77">
-        <v>-0.001530111391160629</v>
+        <v>-0.05692466151289826</v>
       </c>
       <c r="D77">
-        <v>-0.0791656044955495</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>0.009987086759014977</v>
+      </c>
+      <c r="E77">
+        <v>0.0520041092136424</v>
+      </c>
+      <c r="F77">
+        <v>0.003634815302833427</v>
+      </c>
+      <c r="G77">
+        <v>0.07375203256106247</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>-0.01678769138506309</v>
+        <v>0.04172362981947637</v>
       </c>
       <c r="C78">
-        <v>-0.003541527873757682</v>
+        <v>-0.05191676944344028</v>
       </c>
       <c r="D78">
-        <v>-0.06424358545911782</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>0.006720218252519674</v>
+      </c>
+      <c r="E78">
+        <v>0.03851021744096264</v>
+      </c>
+      <c r="F78">
+        <v>-0.03075808454300892</v>
+      </c>
+      <c r="G78">
+        <v>0.1045070355124837</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B79">
-        <v>0</v>
+        <v>-0.0009010684568244325</v>
       </c>
       <c r="C79">
-        <v>0</v>
+        <v>0.0001103064245987008</v>
       </c>
       <c r="D79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>0.0003609422610654165</v>
+      </c>
+      <c r="E79">
+        <v>0.004290646327096608</v>
+      </c>
+      <c r="F79">
+        <v>-0.001007143890354821</v>
+      </c>
+      <c r="G79">
+        <v>0.003155124191670556</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>-0.0330722797633052</v>
+        <v>0.04290263586490021</v>
       </c>
       <c r="C80">
-        <v>-0.001815720458183412</v>
+        <v>-0.05100475867172168</v>
       </c>
       <c r="D80">
-        <v>-0.07954983343686443</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>0.01340956404689573</v>
+      </c>
+      <c r="E80">
+        <v>0.02693556279436209</v>
+      </c>
+      <c r="F80">
+        <v>-0.001207909795596786</v>
+      </c>
+      <c r="G80">
+        <v>0.05047769169060046</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>-0.0732648355312937</v>
+        <v>0.13810000000872</v>
       </c>
       <c r="C81">
-        <v>-0.03875040206286288</v>
+        <v>-0.09715471945361796</v>
       </c>
       <c r="D81">
-        <v>-0.1510400435862121</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.01530742967404981</v>
+      </c>
+      <c r="E81">
+        <v>-0.05697549134011674</v>
+      </c>
+      <c r="F81">
+        <v>0.1190362590330451</v>
+      </c>
+      <c r="G81">
+        <v>0.02036424790865723</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>-0.006355549917742466</v>
+        <v>0.1467525019861092</v>
       </c>
       <c r="C82">
-        <v>-0.002779560959705231</v>
+        <v>-0.08512038658573529</v>
       </c>
       <c r="D82">
-        <v>-0.006892942100245937</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.0120687795750955</v>
+      </c>
+      <c r="E82">
+        <v>-0.1292223274034303</v>
+      </c>
+      <c r="F82">
+        <v>0.04845084783677413</v>
+      </c>
+      <c r="G82">
+        <v>0.06254275199140133</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>-0.01305618331754243</v>
+        <v>0.03431171775467176</v>
       </c>
       <c r="C83">
-        <v>-0.001419369455936852</v>
+        <v>-0.03126281320170331</v>
       </c>
       <c r="D83">
-        <v>-0.01950575516732292</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>0.006451834540456848</v>
+      </c>
+      <c r="E83">
+        <v>0.03399069159055457</v>
+      </c>
+      <c r="F83">
+        <v>-0.02678498431887792</v>
+      </c>
+      <c r="G83">
+        <v>0.06098322908534753</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -1867,164 +2623,272 @@
       <c r="D84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:4">
+      <c r="E84">
+        <v>0</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>-0.1441075830013158</v>
+        <v>0.2080307067408952</v>
       </c>
       <c r="C85">
-        <v>-0.06390200824662387</v>
+        <v>-0.1482001247533103</v>
       </c>
       <c r="D85">
-        <v>-0.2610100108442406</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.01695280721341524</v>
+      </c>
+      <c r="E85">
+        <v>-0.1147441842877125</v>
+      </c>
+      <c r="F85">
+        <v>0.08894443326278774</v>
+      </c>
+      <c r="G85">
+        <v>-0.06491119510415219</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>-0.008566913998416605</v>
+        <v>0.0133098614635402</v>
       </c>
       <c r="C86">
-        <v>0.001887182562343656</v>
+        <v>-0.02673982567944754</v>
       </c>
       <c r="D86">
-        <v>-0.03039298615251253</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>0.01140206957955485</v>
+      </c>
+      <c r="E86">
+        <v>0.05261971143962323</v>
+      </c>
+      <c r="F86">
+        <v>-0.006075362291878535</v>
+      </c>
+      <c r="G86">
+        <v>0.1807586399473052</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>0.009693393338495658</v>
+        <v>0.02164314595967662</v>
       </c>
       <c r="C87">
-        <v>0.01318258772841914</v>
+        <v>-0.01701762610721269</v>
       </c>
       <c r="D87">
-        <v>-0.02525181958100361</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>0.01243322292119622</v>
+      </c>
+      <c r="E87">
+        <v>0.09959001629885843</v>
+      </c>
+      <c r="F87">
+        <v>0.01479075088033462</v>
+      </c>
+      <c r="G87">
+        <v>0.1252757918354681</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>-0.0423749333996441</v>
+        <v>0.09206452862719913</v>
       </c>
       <c r="C88">
-        <v>0.006347036397289955</v>
+        <v>-0.07159723454848783</v>
       </c>
       <c r="D88">
-        <v>-0.03844164808093471</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>0.02223891129415671</v>
+      </c>
+      <c r="E88">
+        <v>-0.006237956141182527</v>
+      </c>
+      <c r="F88">
+        <v>0.02042509015990566</v>
+      </c>
+      <c r="G88">
+        <v>0.09990042253398788</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>-0.3367330888660746</v>
+        <v>0.2342475031326154</v>
       </c>
       <c r="C89">
-        <v>-0.1277362492854087</v>
+        <v>0.3644275957737003</v>
       </c>
       <c r="D89">
-        <v>0.2509491014158824</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-0.0002251382889532424</v>
+      </c>
+      <c r="E89">
+        <v>-0.02466086867202009</v>
+      </c>
+      <c r="F89">
+        <v>0.01854664823345064</v>
+      </c>
+      <c r="G89">
+        <v>0.07644707318370898</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>-0.2857024691411206</v>
+        <v>0.2121557939714713</v>
       </c>
       <c r="C90">
-        <v>-0.112233800667713</v>
+        <v>0.3159362153235745</v>
       </c>
       <c r="D90">
-        <v>0.2164808833616329</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.005003840498762017</v>
+      </c>
+      <c r="E90">
+        <v>-0.003848304644251356</v>
+      </c>
+      <c r="F90">
+        <v>0.0482527358354949</v>
+      </c>
+      <c r="G90">
+        <v>0.04753489007437604</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>-0.1157007755946642</v>
+        <v>0.1848644159795194</v>
       </c>
       <c r="C91">
-        <v>-0.06419282329246294</v>
+        <v>-0.1377717300044598</v>
       </c>
       <c r="D91">
-        <v>-0.1902165738505691</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>-0.02264781660676623</v>
+      </c>
+      <c r="E91">
+        <v>-0.08656557776421643</v>
+      </c>
+      <c r="F91">
+        <v>0.1205076987442118</v>
+      </c>
+      <c r="G91">
+        <v>0.02256381967938279</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>-0.2551750546499189</v>
+        <v>0.1986241666982596</v>
       </c>
       <c r="C92">
-        <v>-0.1351279841855817</v>
+        <v>0.2573461094280616</v>
       </c>
       <c r="D92">
-        <v>0.1337604519151106</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.03882348636295226</v>
+      </c>
+      <c r="E92">
+        <v>0.02204170134335574</v>
+      </c>
+      <c r="F92">
+        <v>0.06100938202749806</v>
+      </c>
+      <c r="G92">
+        <v>0.09394724572344358</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>-0.3086516762043352</v>
+        <v>0.2347229410573226</v>
       </c>
       <c r="C93">
-        <v>-0.1277258389853972</v>
+        <v>0.3105122313013232</v>
       </c>
       <c r="D93">
-        <v>0.1752363866851233</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>-0.01136333356193291</v>
+      </c>
+      <c r="E93">
+        <v>0.002169605388682678</v>
+      </c>
+      <c r="F93">
+        <v>0.04165808328055891</v>
+      </c>
+      <c r="G93">
+        <v>0.05747964770418447</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>-0.1596629418243883</v>
+        <v>0.3189943594701645</v>
       </c>
       <c r="C94">
-        <v>-0.06172808389189807</v>
+        <v>-0.1889949491214298</v>
       </c>
       <c r="D94">
-        <v>-0.2789614100738343</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.02109732394296993</v>
+      </c>
+      <c r="E94">
+        <v>-0.3069558502080181</v>
+      </c>
+      <c r="F94">
+        <v>0.4274994429249967</v>
+      </c>
+      <c r="G94">
+        <v>-0.392059287956578</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>-0.0244006406026097</v>
+        <v>0.09450871407777171</v>
       </c>
       <c r="C95">
-        <v>-0.01992405172085968</v>
+        <v>-0.08265806093276987</v>
       </c>
       <c r="D95">
-        <v>-0.1257480202350382</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.009280418824152125</v>
+      </c>
+      <c r="E95">
+        <v>0.1060664506390122</v>
+      </c>
+      <c r="F95">
+        <v>-0.1588686971660906</v>
+      </c>
+      <c r="G95">
+        <v>0.03775088867333256</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +2899,19 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +2922,42 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>-0.1510966044455296</v>
+        <v>0.1908192431921278</v>
       </c>
       <c r="C98">
-        <v>-0.07925323848760207</v>
+        <v>-0.04777396578182953</v>
       </c>
       <c r="D98">
-        <v>-0.1165238650160341</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.01129987848019094</v>
+      </c>
+      <c r="E98">
+        <v>0.1199561760027735</v>
+      </c>
+      <c r="F98">
+        <v>-0.2224400123935551</v>
+      </c>
+      <c r="G98">
+        <v>-0.02221577491827528</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +2968,19 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +2991,65 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>-0.003739051982265316</v>
+        <v>0.009355941472230416</v>
       </c>
       <c r="C101">
-        <v>0.005550299110622551</v>
+        <v>-0.0230376065827668</v>
       </c>
       <c r="D101">
-        <v>-0.01838078767082028</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>0.009305149294064449</v>
+      </c>
+      <c r="E101">
+        <v>0.003029529055628196</v>
+      </c>
+      <c r="F101">
+        <v>0.01552195064978149</v>
+      </c>
+      <c r="G101">
+        <v>0.1021137845370614</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>-0.07949086731942458</v>
+        <v>0.1167254478123242</v>
       </c>
       <c r="C102">
-        <v>-0.02745133443281193</v>
+        <v>-0.0828878499765857</v>
       </c>
       <c r="D102">
-        <v>-0.1326652102868801</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>0.000629115346330734</v>
+      </c>
+      <c r="E102">
+        <v>-0.04218550952465523</v>
+      </c>
+      <c r="F102">
+        <v>0.03390996619412324</v>
+      </c>
+      <c r="G102">
+        <v>0.01514931035802027</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,19 +3060,37 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B104">
-        <v>-0.3828443036348276</v>
+        <v>0.0213454961501227</v>
       </c>
       <c r="C104">
-        <v>0.9141758598899822</v>
+        <v>0.03025714885547475</v>
       </c>
       <c r="D104">
-        <v>0.01320555279213961</v>
+        <v>0.9876009599999244</v>
+      </c>
+      <c r="E104">
+        <v>-0.06072146901830715</v>
+      </c>
+      <c r="F104">
+        <v>0.02772205249372643</v>
+      </c>
+      <c r="G104">
+        <v>-0.04162372968540257</v>
       </c>
     </row>
   </sheetData>
